--- a/data/trans_orig/IP19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD764CDA-ED96-49BE-9EE6-13FE611977EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9553CE30-3D6B-45AE-A697-78435E3880F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5BC07086-210D-4877-BBAC-6D50C667D646}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16F6A1C8-05F7-4E78-B51B-4281C8F7225B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
@@ -80,649 +80,637 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,19%</t>
+    <t>11,17%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
     <t>Universitarios</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>5,76%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
   </si>
   <si>
     <t>7,49%</t>
   </si>
   <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
     <t>4,75%</t>
   </si>
   <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
   </si>
   <si>
     <t>95,25%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al dentista fue por limpieza de boca en 2015 (Tasa respuesta: 48,78%)</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>53,14%</t>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>55,64%</t>
   </si>
   <si>
     <t>26,45%</t>
   </si>
   <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>42,7%</t>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>46,86%</t>
-  </si>
-  <si>
-    <t>77,13%</t>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
   </si>
   <si>
     <t>73,55%</t>
   </si>
   <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>18,81%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>75,2%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>81,19%</t>
   </si>
   <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>17,53%</t>
   </si>
   <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
+    <t>24,64%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>82,47%</t>
   </si>
   <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>75,36%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>18,97%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
   </si>
   <si>
     <t>81,03%</t>
   </si>
   <si>
-    <t>77,44%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
@@ -731,211 +719,211 @@
     <t>48,88%</t>
   </si>
   <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>41,19%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>62,31%</t>
   </si>
   <si>
     <t>44,7%</t>
   </si>
   <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>51,12%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>58,81%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
   </si>
   <si>
     <t>55,3%</t>
   </si>
   <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
   </si>
   <si>
     <t>35,41%</t>
   </si>
   <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>32,46%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>27,63%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
   </si>
   <si>
     <t>64,59%</t>
   </si>
   <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>69,82%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
   </si>
   <si>
     <t>67,54%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
+    <t>72,37%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
   </si>
   <si>
     <t>26,79%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
   </si>
   <si>
     <t>26,09%</t>
   </si>
   <si>
-    <t>34,09%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
   </si>
   <si>
     <t>73,21%</t>
   </si>
   <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>66,43%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>73,91%</t>
   </si>
   <si>
-    <t>65,91%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>78,16%</t>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>33,71%</t>
   </si>
   <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
   </si>
   <si>
     <t>31,47%</t>
   </si>
   <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
   </si>
   <si>
     <t>32,67%</t>
   </si>
   <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>66,29%</t>
   </si>
   <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>68,53%</t>
   </si>
   <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
   </si>
   <si>
     <t>67,33%</t>
   </si>
   <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60502272-BE6B-4698-B5F7-B5AA70820C40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D09D4-8AAB-487B-AD4F-9D35ADA33F3B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1814,10 +1802,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1832,13 +1820,13 @@
         <v>66337</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>103</v>
@@ -1847,13 +1835,13 @@
         <v>71322</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -1862,13 +1850,13 @@
         <v>137659</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,13 +1924,13 @@
         <v>24141</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -1951,13 +1939,13 @@
         <v>25741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -1966,13 +1954,13 @@
         <v>49882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1987,13 +1975,13 @@
         <v>337590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>483</v>
@@ -2002,13 +1990,13 @@
         <v>325189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>992</v>
@@ -2017,13 +2005,13 @@
         <v>662779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2079,7 +2067,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2098,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51241F8A-4D90-4033-A8FD-122C3AD9A5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14BE998-EE8B-4F4C-8FD5-F7AD674710DB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2115,7 +2103,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2222,13 +2210,13 @@
         <v>1474</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
@@ -2237,13 +2225,13 @@
         <v>1951</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2252,13 +2240,13 @@
         <v>3425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,10 +2261,10 @@
         <v>41489</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2288,13 +2276,13 @@
         <v>46013</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -2303,13 +2291,13 @@
         <v>87503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2365,13 @@
         <v>14494</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2392,13 +2380,13 @@
         <v>13367</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2407,13 +2395,13 @@
         <v>27861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2416,13 @@
         <v>226419</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -2443,13 +2431,13 @@
         <v>206364</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M8" s="7">
         <v>621</v>
@@ -2458,13 +2446,13 @@
         <v>432783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2520,13 @@
         <v>7244</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -2547,28 +2535,28 @@
         <v>5043</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
       </c>
       <c r="N10" s="7">
-        <v>12287</v>
+        <v>12286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2571,13 @@
         <v>74881</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -2598,13 +2586,13 @@
         <v>80505</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -2613,13 +2601,13 @@
         <v>155387</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2661,7 +2649,7 @@
         <v>238</v>
       </c>
       <c r="N12" s="7">
-        <v>167674</v>
+        <v>167673</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2687,13 +2675,13 @@
         <v>23211</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -2705,10 +2693,10 @@
         <v>54</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2717,13 +2705,13 @@
         <v>43572</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2726,13 @@
         <v>342791</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H14" s="7">
         <v>474</v>
@@ -2753,13 +2741,13 @@
         <v>332883</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>965</v>
@@ -2768,13 +2756,13 @@
         <v>675674</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2830,7 +2818,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2849,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB5A4C23-71AF-4BF0-9C2D-69456AF4138E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90442FD-F82B-4653-AB46-6797D17B8C6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2854,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2961,13 @@
         <v>10618</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2988,13 +2976,13 @@
         <v>5857</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -3003,13 +2991,13 @@
         <v>16474</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3012,13 @@
         <v>17523</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3039,13 +3027,13 @@
         <v>16282</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3054,13 +3042,13 @@
         <v>33806</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3116,13 @@
         <v>50737</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H7" s="7">
         <v>70</v>
@@ -3143,13 +3131,13 @@
         <v>47545</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -3158,13 +3146,13 @@
         <v>98281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3167,13 @@
         <v>201433</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H8" s="7">
         <v>300</v>
@@ -3194,13 +3182,13 @@
         <v>205195</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>579</v>
@@ -3209,13 +3197,13 @@
         <v>406628</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3271,13 @@
         <v>10584</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>22</v>
@@ -3298,13 +3286,13 @@
         <v>15377</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3313,13 +3301,13 @@
         <v>25961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3322,13 @@
         <v>77114</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
         <v>102</v>
@@ -3349,13 +3337,13 @@
         <v>72363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -3364,13 +3352,13 @@
         <v>149476</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3426,13 @@
         <v>71938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>101</v>
@@ -3453,13 +3441,13 @@
         <v>68778</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -3468,13 +3456,13 @@
         <v>140716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3477,13 @@
         <v>296070</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>426</v>
@@ -3504,13 +3492,13 @@
         <v>293840</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>838</v>
@@ -3519,13 +3507,13 @@
         <v>589910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3581,7 +3569,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3600,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D783925-99F5-4D02-A62F-5B0A28B4FF96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282EB70-6046-4C2E-AE41-3763ACBDA2DD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3712,13 @@
         <v>11942</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>13</v>
@@ -3739,13 +3727,13 @@
         <v>12003</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
@@ -3754,13 +3742,13 @@
         <v>23945</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3763,13 @@
         <v>12487</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -3790,13 +3778,13 @@
         <v>17136</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
@@ -3805,13 +3793,13 @@
         <v>29623</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3867,13 @@
         <v>110016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>112</v>
@@ -3894,13 +3882,13 @@
         <v>87152</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
@@ -3909,13 +3897,13 @@
         <v>197168</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3918,13 @@
         <v>200715</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>255</v>
@@ -3945,13 +3933,13 @@
         <v>181297</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="M8" s="7">
         <v>500</v>
@@ -3960,13 +3948,13 @@
         <v>382013</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4022,13 @@
         <v>34725</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -4049,13 +4037,13 @@
         <v>26726</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
@@ -4064,13 +4052,13 @@
         <v>61451</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4073,13 @@
         <v>94918</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>110</v>
@@ -4100,13 +4088,13 @@
         <v>75709</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
@@ -4115,13 +4103,13 @@
         <v>170627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4177,13 @@
         <v>156683</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>165</v>
@@ -4204,13 +4192,13 @@
         <v>125881</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
@@ -4219,13 +4207,13 @@
         <v>282564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4228,13 @@
         <v>308120</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>389</v>
@@ -4255,13 +4243,13 @@
         <v>274143</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>773</v>
@@ -4270,13 +4258,13 @@
         <v>582262</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4320,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP19C02-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP19C02-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9553CE30-3D6B-45AE-A697-78435E3880F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0151E31-6797-44EF-A5EF-11AA2D70E8AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{16F6A1C8-05F7-4E78-B51B-4281C8F7225B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C58CC407-0E40-48E0-80FD-19F4AD78E963}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2007 (Tasa respuesta: 50,71%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
     <t>3,16%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
+    <t>9,78%</t>
   </si>
   <si>
     <t>8,8%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
     <t>96,84%</t>
   </si>
   <si>
-    <t>88,83%</t>
+    <t>90,22%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>75,82%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
     <t>91,2%</t>
   </si>
   <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,124 +137,133 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
     <t>6,51%</t>
   </si>
   <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
   </si>
   <si>
     <t>6,67%</t>
   </si>
   <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
   </si>
   <si>
     <t>7,0%</t>
@@ -263,28 +272,31 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>8,62%</t>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
   </si>
   <si>
     <t>93,33%</t>
   </si>
   <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>91,38%</t>
+    <t>91,11%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -296,634 +308,640 @@
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2012 (Tasa respuesta: 48,93%)</t>
   </si>
   <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
+    <t>11,76%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>88,24%</t>
   </si>
   <si>
     <t>96,23%</t>
   </si>
   <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
   </si>
   <si>
     <t>6,02%</t>
   </si>
   <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>93,98%</t>
   </si>
   <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
   </si>
   <si>
     <t>8,82%</t>
   </si>
   <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>7,33%</t>
   </si>
   <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
   </si>
   <si>
     <t>91,18%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
   </si>
   <si>
     <t>92,67%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
   </si>
   <si>
     <t>93,66%</t>
   </si>
   <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>93,94%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2016 (Tasa respuesta: 48,78%)</t>
   </si>
   <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>55,64%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
   </si>
   <si>
     <t>32,77%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
   </si>
   <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>67,23%</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
   </si>
   <si>
     <t>20,12%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
   </si>
   <si>
     <t>19,47%</t>
   </si>
   <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>79,88%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>80,53%</t>
   </si>
   <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
   </si>
   <si>
     <t>14,8%</t>
   </si>
   <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>74,54%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>87,93%</t>
   </si>
   <si>
-    <t>81,38%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
   </si>
   <si>
     <t>19,55%</t>
   </si>
   <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>19,26%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
   </si>
   <si>
     <t>80,45%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>80,74%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>78,35%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
   </si>
   <si>
     <t>Menores según su última visita al dentista fue por limpieza de boca en 2023 (Tasa respuesta: 58,54%)</t>
   </si>
   <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>74,74%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>26,79%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>33,57%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>66,8%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>70,1%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
   </si>
   <si>
     <t>31,48%</t>
   </si>
   <si>
-    <t>73,21%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>73,52%</t>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>68,52%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
   </si>
 </sst>
 </file>
@@ -1335,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D09D4-8AAB-487B-AD4F-9D35ADA33F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70303BBB-8834-439C-B2AD-E6F25E647564}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1471,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>1354</v>
+        <v>6553</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1468,10 +1486,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>6553</v>
+        <v>1354</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1504,10 +1522,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="7">
-        <v>41537</v>
+        <v>40373</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1519,10 +1537,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I5" s="7">
-        <v>40373</v>
+        <v>41537</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1555,25 +1573,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>70</v>
+      </c>
+      <c r="D6" s="7">
+        <v>46926</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>64</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42891</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>70</v>
-      </c>
-      <c r="I6" s="7">
-        <v>46926</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1608,10 +1626,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>16007</v>
+        <v>14827</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1623,10 +1641,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>14827</v>
+        <v>16007</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1659,10 +1677,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="D8" s="7">
-        <v>229716</v>
+        <v>213495</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1674,10 +1692,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="I8" s="7">
-        <v>213495</v>
+        <v>229716</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1710,25 +1728,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>343</v>
+      </c>
+      <c r="D9" s="7">
+        <v>228322</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>245723</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>343</v>
-      </c>
-      <c r="I9" s="7">
-        <v>228322</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1763,10 +1781,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6780</v>
+        <v>4361</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1778,10 +1796,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>4361</v>
+        <v>6780</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1802,10 +1820,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,34 +1832,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>103</v>
+      </c>
+      <c r="D11" s="7">
+        <v>71322</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>99</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>66337</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>103</v>
-      </c>
-      <c r="I11" s="7">
-        <v>71322</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>202</v>
@@ -1850,13 +1868,13 @@
         <v>137659</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="D12" s="7">
-        <v>73117</v>
+        <v>75683</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1883,7 +1901,7 @@
         <v>109</v>
       </c>
       <c r="I12" s="7">
-        <v>75683</v>
+        <v>73117</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1918,34 +1936,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>39</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25741</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>36</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24141</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>39</v>
-      </c>
-      <c r="I13" s="7">
-        <v>25741</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>75</v>
@@ -1954,13 +1972,13 @@
         <v>49882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,34 +1987,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>483</v>
+      </c>
+      <c r="D14" s="7">
+        <v>325189</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>509</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>337590</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="7">
-        <v>483</v>
-      </c>
-      <c r="I14" s="7">
-        <v>325189</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>992</v>
@@ -2005,13 +2023,13 @@
         <v>662779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,25 +2038,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>522</v>
+      </c>
+      <c r="D15" s="7">
+        <v>350930</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>545</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>361731</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>522</v>
-      </c>
-      <c r="I15" s="7">
-        <v>350930</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14BE998-EE8B-4F4C-8FD5-F7AD674710DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8289DCF8-3922-49CF-83DB-2841322F136B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2204,34 +2222,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1951</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>1474</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="7">
-        <v>3</v>
-      </c>
-      <c r="I4" s="7">
-        <v>1951</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>88</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -2240,13 +2258,13 @@
         <v>3425</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,34 +2273,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>46013</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="7">
         <v>57</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>41489</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>66</v>
-      </c>
-      <c r="I5" s="7">
-        <v>46013</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
         <v>123</v>
@@ -2291,13 +2309,13 @@
         <v>87503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,25 +2324,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>47964</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>59</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>42963</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>69</v>
-      </c>
-      <c r="I6" s="7">
-        <v>47964</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2359,34 +2377,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13367</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" s="7">
         <v>21</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>14494</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H7" s="7">
-        <v>19</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13367</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2395,13 +2413,13 @@
         <v>27861</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,34 +2428,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>295</v>
+      </c>
+      <c r="D8" s="7">
+        <v>206364</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="7">
         <v>326</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>226419</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="7">
-        <v>295</v>
-      </c>
-      <c r="I8" s="7">
-        <v>206364</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>621</v>
@@ -2446,13 +2464,13 @@
         <v>432783</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,25 +2479,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>314</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219731</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>240913</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>314</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219731</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2514,34 +2532,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5043</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="7">
         <v>10</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>7244</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5043</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M10" s="7">
         <v>17</v>
@@ -2550,13 +2568,13 @@
         <v>12286</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,34 +2583,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>113</v>
+      </c>
+      <c r="D11" s="7">
+        <v>80505</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="7">
         <v>108</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>74881</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="H11" s="7">
-        <v>113</v>
-      </c>
-      <c r="I11" s="7">
-        <v>80505</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="M11" s="7">
         <v>221</v>
@@ -2601,13 +2619,13 @@
         <v>155387</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,25 +2634,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>120</v>
+      </c>
+      <c r="D12" s="7">
+        <v>85548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>118</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>82125</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>120</v>
-      </c>
-      <c r="I12" s="7">
-        <v>85548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2669,34 +2687,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>20361</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="7">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>23211</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20361</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>62</v>
@@ -2705,13 +2723,13 @@
         <v>43572</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,34 +2738,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>474</v>
+      </c>
+      <c r="D14" s="7">
+        <v>332883</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H14" s="7">
         <v>491</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>342791</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H14" s="7">
-        <v>474</v>
-      </c>
-      <c r="I14" s="7">
-        <v>332883</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>965</v>
@@ -2756,13 +2774,13 @@
         <v>675674</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,25 +2789,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>503</v>
+      </c>
+      <c r="D15" s="7">
+        <v>353244</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>524</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>366002</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>503</v>
-      </c>
-      <c r="I15" s="7">
-        <v>353244</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90442FD-F82B-4653-AB46-6797D17B8C6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7500986B-7268-49CB-A955-D051F7438049}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2955,34 +2973,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5857</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="7">
         <v>15</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>10618</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H4" s="7">
-        <v>9</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5857</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2991,13 +3009,13 @@
         <v>16474</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,34 +3024,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16282</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="7">
         <v>25</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17523</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
-      <c r="I5" s="7">
-        <v>16282</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M5" s="7">
         <v>49</v>
@@ -3042,13 +3060,13 @@
         <v>33806</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,25 +3075,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>33</v>
+      </c>
+      <c r="D6" s="7">
+        <v>22139</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>40</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>28141</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>33</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22139</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3110,34 +3128,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>70</v>
+      </c>
+      <c r="D7" s="7">
+        <v>47545</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="7">
         <v>68</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>50737</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="H7" s="7">
-        <v>70</v>
-      </c>
-      <c r="I7" s="7">
-        <v>47545</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -3146,13 +3164,13 @@
         <v>98281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,34 +3179,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>300</v>
+      </c>
+      <c r="D8" s="7">
+        <v>205195</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="7">
         <v>279</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>201433</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H8" s="7">
-        <v>300</v>
-      </c>
-      <c r="I8" s="7">
-        <v>205195</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>579</v>
@@ -3197,13 +3215,13 @@
         <v>406628</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,25 +3230,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>370</v>
+      </c>
+      <c r="D9" s="7">
+        <v>252740</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>347</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>252170</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>370</v>
-      </c>
-      <c r="I9" s="7">
-        <v>252740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3265,34 +3283,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15377</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="H10" s="7">
         <v>15</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>10584</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="H10" s="7">
-        <v>22</v>
-      </c>
-      <c r="I10" s="7">
-        <v>15377</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>56</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="M10" s="7">
         <v>37</v>
@@ -3301,13 +3319,13 @@
         <v>25961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,34 +3334,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>102</v>
+      </c>
+      <c r="D11" s="7">
+        <v>72363</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="7">
         <v>108</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>77114</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H11" s="7">
-        <v>102</v>
-      </c>
-      <c r="I11" s="7">
-        <v>72363</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="M11" s="7">
         <v>210</v>
@@ -3352,13 +3370,13 @@
         <v>149476</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,25 +3385,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>124</v>
+      </c>
+      <c r="D12" s="7">
+        <v>87740</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>123</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>87698</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>124</v>
-      </c>
-      <c r="I12" s="7">
-        <v>87740</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3420,34 +3438,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>101</v>
+      </c>
+      <c r="D13" s="7">
+        <v>68778</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="7">
         <v>98</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>71938</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="H13" s="7">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7">
-        <v>68778</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M13" s="7">
         <v>199</v>
@@ -3456,13 +3474,13 @@
         <v>140716</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,34 +3489,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>426</v>
+      </c>
+      <c r="D14" s="7">
+        <v>293840</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="7">
         <v>412</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>296070</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H14" s="7">
-        <v>426</v>
-      </c>
-      <c r="I14" s="7">
-        <v>293840</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>838</v>
@@ -3507,13 +3525,13 @@
         <v>589910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,25 +3540,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>527</v>
+      </c>
+      <c r="D15" s="7">
+        <v>362618</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>510</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>368008</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>527</v>
-      </c>
-      <c r="I15" s="7">
-        <v>362618</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3569,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8282EB70-6046-4C2E-AE41-3763ACBDA2DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7B65C-8FDE-4A47-B704-0F9141374BD4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,49 +3724,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>11731</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="7">
         <v>14</v>
       </c>
-      <c r="D4" s="7">
-        <v>11942</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H4" s="7">
-        <v>13</v>
-      </c>
       <c r="I4" s="7">
-        <v>12003</v>
+        <v>11666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="M4" s="7">
         <v>27</v>
       </c>
       <c r="N4" s="7">
-        <v>23945</v>
+        <v>23398</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3775,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>24</v>
+      </c>
+      <c r="D5" s="7">
+        <v>17999</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="H5" s="7">
         <v>17</v>
       </c>
-      <c r="D5" s="7">
-        <v>12487</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H5" s="7">
-        <v>24</v>
-      </c>
       <c r="I5" s="7">
-        <v>17136</v>
+        <v>13818</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>41</v>
       </c>
       <c r="N5" s="7">
-        <v>29623</v>
+        <v>31816</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,25 +3826,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>37</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
-        <v>24429</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>37</v>
-      </c>
       <c r="I6" s="7">
-        <v>29139</v>
+        <v>25484</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3859,7 @@
         <v>68</v>
       </c>
       <c r="N6" s="7">
-        <v>53568</v>
+        <v>55214</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3861,49 +3879,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>112</v>
+      </c>
+      <c r="D7" s="7">
+        <v>79289</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H7" s="7">
         <v>127</v>
       </c>
-      <c r="D7" s="7">
-        <v>110016</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="H7" s="7">
-        <v>112</v>
-      </c>
       <c r="I7" s="7">
-        <v>87152</v>
+        <v>107227</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M7" s="7">
         <v>239</v>
       </c>
       <c r="N7" s="7">
-        <v>197168</v>
+        <v>186516</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +3930,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>255</v>
+      </c>
+      <c r="D8" s="7">
+        <v>182538</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="H8" s="7">
         <v>245</v>
       </c>
-      <c r="D8" s="7">
-        <v>200715</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H8" s="7">
-        <v>255</v>
-      </c>
       <c r="I8" s="7">
-        <v>181297</v>
+        <v>215788</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M8" s="7">
         <v>500</v>
       </c>
       <c r="N8" s="7">
-        <v>382013</v>
+        <v>398326</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,25 +3981,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>367</v>
+      </c>
+      <c r="D9" s="7">
+        <v>261827</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>372</v>
       </c>
-      <c r="D9" s="7">
-        <v>310731</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>367</v>
-      </c>
       <c r="I9" s="7">
-        <v>268449</v>
+        <v>323015</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +4014,7 @@
         <v>739</v>
       </c>
       <c r="N9" s="7">
-        <v>579181</v>
+        <v>584842</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4016,49 +4034,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>40</v>
+      </c>
+      <c r="D10" s="7">
+        <v>25319</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H10" s="7">
         <v>45</v>
       </c>
-      <c r="D10" s="7">
-        <v>34725</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="7">
-        <v>40</v>
-      </c>
       <c r="I10" s="7">
-        <v>26726</v>
+        <v>33617</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="M10" s="7">
         <v>85</v>
       </c>
       <c r="N10" s="7">
-        <v>61451</v>
+        <v>58936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,49 +4085,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>110</v>
+      </c>
+      <c r="D11" s="7">
+        <v>74757</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="7">
         <v>122</v>
       </c>
-      <c r="D11" s="7">
-        <v>94918</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" s="7">
-        <v>110</v>
-      </c>
       <c r="I11" s="7">
-        <v>75709</v>
+        <v>102328</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="M11" s="7">
         <v>232</v>
       </c>
       <c r="N11" s="7">
-        <v>170627</v>
+        <v>177085</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,25 +4136,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>150</v>
+      </c>
+      <c r="D12" s="7">
+        <v>100076</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>167</v>
       </c>
-      <c r="D12" s="7">
-        <v>129643</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>150</v>
-      </c>
       <c r="I12" s="7">
-        <v>102435</v>
+        <v>135945</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4169,7 @@
         <v>317</v>
       </c>
       <c r="N12" s="7">
-        <v>232078</v>
+        <v>236021</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4171,49 +4189,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>165</v>
+      </c>
+      <c r="D13" s="7">
+        <v>116339</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H13" s="7">
         <v>186</v>
       </c>
-      <c r="D13" s="7">
-        <v>156683</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>165</v>
-      </c>
       <c r="I13" s="7">
-        <v>125881</v>
+        <v>152510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
         <v>351</v>
       </c>
       <c r="N13" s="7">
-        <v>282564</v>
+        <v>268849</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,49 +4240,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>389</v>
+      </c>
+      <c r="D14" s="7">
+        <v>275294</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" s="7">
         <v>384</v>
       </c>
-      <c r="D14" s="7">
-        <v>308120</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" s="7">
-        <v>389</v>
-      </c>
       <c r="I14" s="7">
-        <v>274143</v>
+        <v>331934</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>773</v>
       </c>
       <c r="N14" s="7">
-        <v>582262</v>
+        <v>607227</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,25 +4291,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>554</v>
+      </c>
+      <c r="D15" s="7">
+        <v>391633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>570</v>
       </c>
-      <c r="D15" s="7">
-        <v>464803</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>554</v>
-      </c>
       <c r="I15" s="7">
-        <v>400024</v>
+        <v>484444</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4324,7 @@
         <v>1124</v>
       </c>
       <c r="N15" s="7">
-        <v>864826</v>
+        <v>876076</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4320,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
